--- a/docs/Book.xlsx
+++ b/docs/Book.xlsx
@@ -8,14 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\d-drive\learn-self\AVSPortal\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51905810-4AB8-49F2-B511-0C256417EBA3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D231778E-AD49-4253-80F3-EBB3BC01173C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12660" yWindow="4110" windowWidth="13605" windowHeight="10875" activeTab="1" xr2:uid="{4190BDB6-5BA2-44AB-A948-B2184AEC364A}"/>
+    <workbookView xWindow="11505" yWindow="90" windowWidth="15960" windowHeight="15660" xr2:uid="{4190BDB6-5BA2-44AB-A948-B2184AEC364A}"/>
   </bookViews>
   <sheets>
     <sheet name="AVSPortal" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="3" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">AVSPortal!$A$3:$F$13</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -35,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="42">
   <si>
     <t>Backlog Items</t>
   </si>
@@ -68,6 +72,99 @@
   </si>
   <si>
     <t>Edit User</t>
+  </si>
+  <si>
+    <t>UUID</t>
+  </si>
+  <si>
+    <t>FAMILY_MEMBER_UUID</t>
+  </si>
+  <si>
+    <t>SON</t>
+  </si>
+  <si>
+    <t>Periyannan</t>
+  </si>
+  <si>
+    <t>Marimuthu</t>
+  </si>
+  <si>
+    <t>Suresh</t>
+  </si>
+  <si>
+    <t>Ramesh</t>
+  </si>
+  <si>
+    <t>Manimekalai</t>
+  </si>
+  <si>
+    <t>HEAD</t>
+  </si>
+  <si>
+    <t>SPOUSE</t>
+  </si>
+  <si>
+    <t>USER_NAME</t>
+  </si>
+  <si>
+    <t>USER_UUID</t>
+  </si>
+  <si>
+    <t>Hema</t>
+  </si>
+  <si>
+    <t>Thiruchelvam</t>
+  </si>
+  <si>
+    <t>Thilagam</t>
+  </si>
+  <si>
+    <t>Kishore</t>
+  </si>
+  <si>
+    <t>Swetha</t>
+  </si>
+  <si>
+    <t>Riya</t>
+  </si>
+  <si>
+    <t>DAUGHTER</t>
+  </si>
+  <si>
+    <t>Oyamaari</t>
+  </si>
+  <si>
+    <t>Periyasamy</t>
+  </si>
+  <si>
+    <t>ALIVE</t>
+  </si>
+  <si>
+    <t>EXPIRED</t>
+  </si>
+  <si>
+    <t>Palaniaandi</t>
+  </si>
+  <si>
+    <t>Lakshith</t>
+  </si>
+  <si>
+    <t>Ananya</t>
+  </si>
+  <si>
+    <t>Sappaani</t>
+  </si>
+  <si>
+    <t>LIVE_STATUS_ENUM</t>
+  </si>
+  <si>
+    <t>FAMILY_MEMBER_TITLE_ENUM</t>
+  </si>
+  <si>
+    <t>PARENT_FAMILY_HEAD_ID</t>
+  </si>
+  <si>
+    <t>FAMILY_HEAD_ID</t>
   </si>
 </sst>
 </file>
@@ -231,18 +328,6 @@
   </cellStyles>
   <dxfs count="6">
     <dxf>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
@@ -283,13 +368,6 @@
     </dxf>
     <dxf>
       <border outline="0">
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
@@ -302,6 +380,25 @@
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
       </border>
     </dxf>
   </dxfs>
@@ -318,10 +415,10 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D6E37937-64D3-43D9-8154-5FECECED6B2A}" name="Table1" displayName="Table1" ref="B2:C21" totalsRowShown="0" headerRowDxfId="0" headerRowBorderDxfId="4" tableBorderDxfId="5" totalsRowBorderDxfId="3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D6E37937-64D3-43D9-8154-5FECECED6B2A}" name="Table1" displayName="Table1" ref="B2:C21" totalsRowShown="0" headerRowDxfId="5" headerRowBorderDxfId="4" tableBorderDxfId="3" totalsRowBorderDxfId="2">
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{2D6BA027-A2C2-47EB-A165-62BA5F45B6D2}" name="Sl.No" dataDxfId="2"/>
-    <tableColumn id="2" xr3:uid="{DBFFC056-FEBD-4689-8B31-ABB14784BDB0}" name="Backlog Items" dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{2D6BA027-A2C2-47EB-A165-62BA5F45B6D2}" name="Sl.No" dataDxfId="1"/>
+    <tableColumn id="2" xr3:uid="{DBFFC056-FEBD-4689-8B31-ABB14784BDB0}" name="Backlog Items" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -624,12 +721,458 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DDF40440-4D46-4BBF-9D31-9F0A2A65D313}">
-  <dimension ref="A1"/>
+  <dimension ref="A3:J21"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="24.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E3" t="s">
+        <v>38</v>
+      </c>
+      <c r="F3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>501</v>
+      </c>
+      <c r="B4">
+        <v>500</v>
+      </c>
+      <c r="C4">
+        <v>501</v>
+      </c>
+      <c r="D4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" t="s">
+        <v>32</v>
+      </c>
+      <c r="F4">
+        <v>501</v>
+      </c>
+      <c r="I4" t="s">
+        <v>21</v>
+      </c>
+      <c r="J4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>502</v>
+      </c>
+      <c r="C5">
+        <v>500</v>
+      </c>
+      <c r="D5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" t="s">
+        <v>32</v>
+      </c>
+      <c r="F5">
+        <v>502</v>
+      </c>
+      <c r="I5" t="s">
+        <v>14</v>
+      </c>
+      <c r="J5">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>503</v>
+      </c>
+      <c r="C6">
+        <v>500</v>
+      </c>
+      <c r="D6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" t="s">
+        <v>32</v>
+      </c>
+      <c r="F6">
+        <v>503</v>
+      </c>
+      <c r="I6" t="s">
+        <v>15</v>
+      </c>
+      <c r="J6">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>500</v>
+      </c>
+      <c r="B7">
+        <v>200</v>
+      </c>
+      <c r="C7">
+        <v>500</v>
+      </c>
+      <c r="D7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E7" t="s">
+        <v>32</v>
+      </c>
+      <c r="F7">
+        <v>500</v>
+      </c>
+      <c r="I7" t="s">
+        <v>16</v>
+      </c>
+      <c r="J7">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>504</v>
+      </c>
+      <c r="C8">
+        <v>500</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8" t="s">
+        <v>32</v>
+      </c>
+      <c r="F8">
+        <v>504</v>
+      </c>
+      <c r="I8" t="s">
+        <v>17</v>
+      </c>
+      <c r="J8">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>602</v>
+      </c>
+      <c r="B9">
+        <v>100</v>
+      </c>
+      <c r="C9">
+        <v>602</v>
+      </c>
+      <c r="D9" t="s">
+        <v>19</v>
+      </c>
+      <c r="E9" t="s">
+        <v>32</v>
+      </c>
+      <c r="F9">
+        <v>602</v>
+      </c>
+      <c r="I9" t="s">
+        <v>18</v>
+      </c>
+      <c r="J9">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>603</v>
+      </c>
+      <c r="B10">
+        <v>105</v>
+      </c>
+      <c r="C10">
+        <v>602</v>
+      </c>
+      <c r="D10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10" t="s">
+        <v>32</v>
+      </c>
+      <c r="F10">
+        <v>603</v>
+      </c>
+      <c r="I10" t="s">
+        <v>23</v>
+      </c>
+      <c r="J10">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>701</v>
+      </c>
+      <c r="B11">
+        <v>602</v>
+      </c>
+      <c r="C11">
+        <v>701</v>
+      </c>
+      <c r="D11" t="s">
+        <v>19</v>
+      </c>
+      <c r="E11" t="s">
+        <v>32</v>
+      </c>
+      <c r="F11">
+        <v>701</v>
+      </c>
+      <c r="I11" t="s">
+        <v>24</v>
+      </c>
+      <c r="J11">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>702</v>
+      </c>
+      <c r="B12">
+        <v>702</v>
+      </c>
+      <c r="C12">
+        <v>701</v>
+      </c>
+      <c r="D12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12" t="s">
+        <v>32</v>
+      </c>
+      <c r="F12">
+        <v>702</v>
+      </c>
+      <c r="I12" t="s">
+        <v>25</v>
+      </c>
+      <c r="J12">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>703</v>
+      </c>
+      <c r="C13">
+        <v>701</v>
+      </c>
+      <c r="D13" t="s">
+        <v>29</v>
+      </c>
+      <c r="E13" t="s">
+        <v>32</v>
+      </c>
+      <c r="F13">
+        <v>703</v>
+      </c>
+      <c r="I13" t="s">
+        <v>26</v>
+      </c>
+      <c r="J13">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>100</v>
+      </c>
+      <c r="C14">
+        <v>100</v>
+      </c>
+      <c r="D14" t="s">
+        <v>19</v>
+      </c>
+      <c r="E14" t="s">
+        <v>33</v>
+      </c>
+      <c r="F14">
+        <v>100</v>
+      </c>
+      <c r="I14" t="s">
+        <v>27</v>
+      </c>
+      <c r="J14">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>200</v>
+      </c>
+      <c r="C15">
+        <v>200</v>
+      </c>
+      <c r="D15" t="s">
+        <v>19</v>
+      </c>
+      <c r="E15" t="s">
+        <v>33</v>
+      </c>
+      <c r="F15">
+        <v>200</v>
+      </c>
+      <c r="I15" t="s">
+        <v>28</v>
+      </c>
+      <c r="J15">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>105</v>
+      </c>
+      <c r="C16">
+        <v>105</v>
+      </c>
+      <c r="D16" t="s">
+        <v>19</v>
+      </c>
+      <c r="E16" t="s">
+        <v>33</v>
+      </c>
+      <c r="F16">
+        <v>105</v>
+      </c>
+      <c r="I16" t="s">
+        <v>30</v>
+      </c>
+      <c r="J16">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>601</v>
+      </c>
+      <c r="B17">
+        <v>602</v>
+      </c>
+      <c r="C17">
+        <v>501</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17" t="s">
+        <v>32</v>
+      </c>
+      <c r="F17">
+        <v>601</v>
+      </c>
+      <c r="I17" t="s">
+        <v>31</v>
+      </c>
+      <c r="J17">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>900</v>
+      </c>
+      <c r="C18">
+        <v>501</v>
+      </c>
+      <c r="D18" t="s">
+        <v>13</v>
+      </c>
+      <c r="E18" t="s">
+        <v>32</v>
+      </c>
+      <c r="F18">
+        <v>900</v>
+      </c>
+      <c r="I18" t="s">
+        <v>34</v>
+      </c>
+      <c r="J18">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>200</v>
+      </c>
+      <c r="C19">
+        <v>501</v>
+      </c>
+      <c r="D19" t="s">
+        <v>29</v>
+      </c>
+      <c r="E19" t="s">
+        <v>32</v>
+      </c>
+      <c r="F19">
+        <v>200</v>
+      </c>
+      <c r="I19" t="s">
+        <v>35</v>
+      </c>
+      <c r="J19">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I20" t="s">
+        <v>36</v>
+      </c>
+      <c r="J20">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I21" t="s">
+        <v>37</v>
+      </c>
+      <c r="J21">
+        <v>400</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A3:F13" xr:uid="{D086325D-B13C-48BB-9CAA-69B4E6EEFEC4}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:F13">
+      <sortCondition ref="D4:D13"/>
+    </sortState>
+  </autoFilter>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:F19">
+    <sortCondition ref="A4:A19"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -638,8 +1181,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8EC7334D-4E88-48EE-870E-A5F62A8B7520}">
   <dimension ref="B2:L21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="P20" sqref="P20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -848,4 +1391,16 @@
     <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35CFC0DD-D93E-4AB5-BBE0-B1D17F453B36}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>